--- a/staffs.xlsx
+++ b/staffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adesina.Adeyemo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77582EC-F7DF-4D68-85D2-22BEBE297F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FF2A73-3310-4AE7-8D2D-350DF00D86D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90F8D8EF-E57D-4AF0-8793-758E9BC8902D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -336,6 +336,30 @@
   </si>
   <si>
     <t>Senior Manager</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Floor 2</t>
+  </si>
+  <si>
+    <t>Diaspora</t>
+  </si>
+  <si>
+    <t>Leadership and Line Managers</t>
+  </si>
+  <si>
+    <t>Floor 3</t>
+  </si>
+  <si>
+    <t>Floor 4</t>
+  </si>
+  <si>
+    <t>Floor 5</t>
+  </si>
+  <si>
+    <t>Floor 0 &amp; 1</t>
   </si>
 </sst>
 </file>
@@ -701,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D781C070-8515-4681-9324-0DF5D5B292AA}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +737,7 @@
     <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,8 +750,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +767,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -754,8 +784,11 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -768,8 +801,11 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -782,8 +818,11 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -796,8 +835,11 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -810,8 +852,11 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -824,8 +869,11 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -838,8 +886,11 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -852,8 +903,11 @@
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -866,8 +920,11 @@
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -880,8 +937,11 @@
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -894,8 +954,11 @@
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -908,8 +971,11 @@
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -922,8 +988,11 @@
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -936,8 +1005,11 @@
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -950,8 +1022,11 @@
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -964,8 +1039,11 @@
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -978,8 +1056,11 @@
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -992,8 +1073,11 @@
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1006,8 +1090,11 @@
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1020,8 +1107,11 @@
       <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1034,8 +1124,11 @@
       <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1048,8 +1141,11 @@
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1062,8 +1158,11 @@
       <c r="D25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1076,8 +1175,11 @@
       <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1090,8 +1192,11 @@
       <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1104,8 +1209,11 @@
       <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1118,8 +1226,11 @@
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1132,8 +1243,11 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1146,8 +1260,11 @@
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1160,8 +1277,11 @@
       <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1174,8 +1294,11 @@
       <c r="D33" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1188,8 +1311,11 @@
       <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1202,8 +1328,11 @@
       <c r="D35" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1216,8 +1345,11 @@
       <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1230,8 +1362,11 @@
       <c r="D37" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1244,8 +1379,11 @@
       <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1258,8 +1396,11 @@
       <c r="D39" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1272,8 +1413,11 @@
       <c r="D40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1286,8 +1430,11 @@
       <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1300,8 +1447,11 @@
       <c r="D42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1314,8 +1464,11 @@
       <c r="D43" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1328,8 +1481,11 @@
       <c r="D44" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1342,8 +1498,11 @@
       <c r="D45" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -1356,8 +1515,11 @@
       <c r="D46" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -1370,8 +1532,11 @@
       <c r="D47" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1384,8 +1549,11 @@
       <c r="D48" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1398,8 +1566,11 @@
       <c r="D49" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -1412,8 +1583,11 @@
       <c r="D50" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -1426,8 +1600,11 @@
       <c r="D51" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -1440,8 +1617,11 @@
       <c r="D52" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -1454,8 +1634,11 @@
       <c r="D53" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -1468,8 +1651,11 @@
       <c r="D54" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -1482,8 +1668,11 @@
       <c r="D55" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -1496,8 +1685,11 @@
       <c r="D56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -1510,8 +1702,11 @@
       <c r="D57" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -1524,8 +1719,11 @@
       <c r="D58" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -1538,8 +1736,11 @@
       <c r="D59" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -1552,8 +1753,11 @@
       <c r="D60" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -1566,8 +1770,11 @@
       <c r="D61" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -1580,8 +1787,11 @@
       <c r="D62" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -1594,8 +1804,11 @@
       <c r="D63" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
@@ -1608,8 +1821,11 @@
       <c r="D64" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
@@ -1622,8 +1838,11 @@
       <c r="D65" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -1636,8 +1855,11 @@
       <c r="D66" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
@@ -1650,8 +1872,11 @@
       <c r="D67" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -1664,8 +1889,11 @@
       <c r="D68" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -1678,8 +1906,11 @@
       <c r="D69" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
@@ -1692,8 +1923,11 @@
       <c r="D70" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
@@ -1706,8 +1940,11 @@
       <c r="D71" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -1720,8 +1957,11 @@
       <c r="D72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
@@ -1734,8 +1974,11 @@
       <c r="D73" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
@@ -1748,8 +1991,11 @@
       <c r="D74" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -1762,8 +2008,11 @@
       <c r="D75" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
@@ -1776,8 +2025,11 @@
       <c r="D76" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -1790,8 +2042,11 @@
       <c r="D77" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
@@ -1804,8 +2059,11 @@
       <c r="D78" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
@@ -1818,8 +2076,11 @@
       <c r="D79" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
@@ -1831,6 +2092,9 @@
       </c>
       <c r="D80" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/staffs.xlsx
+++ b/staffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adesina.Adeyemo\OneDrive - Ipsos\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB6AB89-2060-4513-A573-7055D60E6235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DDF2A-815E-4EEB-B94F-C72CB6176F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90F8D8EF-E57D-4AF0-8793-758E9BC8902D}"/>
   </bookViews>
@@ -308,9 +308,6 @@
     <t>Floor 5</t>
   </si>
   <si>
-    <t>Floor 0 &amp; 1</t>
-  </si>
-  <si>
     <t>Incompatible With</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>OKIKIOLU Adeolu, OLATUNJI Elijah, BASHIR Muhammed</t>
+  </si>
+  <si>
+    <t>Floor 0-1</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
         <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,7 +982,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">

--- a/staffs.xlsx
+++ b/staffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adesina.Adeyemo\OneDrive - Ipsos\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DDF2A-815E-4EEB-B94F-C72CB6176F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306334A-3763-4382-8A1D-4D3AB48C972E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90F8D8EF-E57D-4AF0-8793-758E9BC8902D}"/>
   </bookViews>
@@ -296,9 +296,6 @@
     <t>Diaspora</t>
   </si>
   <si>
-    <t>Leadership and Line Managers</t>
-  </si>
-  <si>
     <t>Floor 3</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>Floor 0-1</t>
+  </si>
+  <si>
+    <t>Leadership</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -789,7 +789,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -803,7 +803,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -825,7 +825,7 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -847,7 +847,7 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -858,7 +858,7 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -891,10 +891,10 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,7 +949,7 @@
         <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,7 +960,7 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,7 +982,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1120,7 +1120,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
         <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1219,7 +1219,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
         <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1263,7 +1263,7 @@
         <v>81</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>81</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>81</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1384,7 +1384,7 @@
         <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>82</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1439,7 +1439,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
         <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
         <v>81</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1472,7 +1472,7 @@
         <v>81</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1483,7 +1483,7 @@
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1505,7 +1505,7 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,7 +1527,7 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,7 +1560,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1582,7 +1582,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">

--- a/staffs.xlsx
+++ b/staffs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adesina.Adeyemo\OneDrive - Ipsos\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adesina.Adeyemo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D48003-AF2C-41F2-82F9-10ED3384F984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{002932EE-80F2-4E89-91FE-DB43C50D0B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90F8D8EF-E57D-4AF0-8793-758E9BC8902D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -47,18 +47,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>AWOJI Priscilla</t>
-  </si>
-  <si>
-    <t>CARRILHO Alexan</t>
-  </si>
-  <si>
-    <t>OLATUNJI Elijah</t>
-  </si>
-  <si>
-    <t>ONONUJU Godson</t>
-  </si>
-  <si>
     <t>OLAJUBU Olaniyi</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>Incompatible With</t>
   </si>
   <si>
-    <t>HYACINTH Jackson, NOAH Monday, OYEKOLA Ruth Abiodun</t>
-  </si>
-  <si>
     <t>Floor 0-1</t>
   </si>
   <si>
@@ -182,9 +167,6 @@
     <t>NESTOR, Gift</t>
   </si>
   <si>
-    <t>ASU, Divine</t>
-  </si>
-  <si>
     <t>LASISI, Kehinde</t>
   </si>
   <si>
@@ -321,6 +303,63 @@
   </si>
   <si>
     <t>GANDU, Glory</t>
+  </si>
+  <si>
+    <t>OBARO, Micheal</t>
+  </si>
+  <si>
+    <t>Osaro, Sunday</t>
+  </si>
+  <si>
+    <t>OWOJORI, Jumoke</t>
+  </si>
+  <si>
+    <t>TOM-DAVID, Goodness</t>
+  </si>
+  <si>
+    <t>DADA, Patricia</t>
+  </si>
+  <si>
+    <t>AZU, Divine</t>
+  </si>
+  <si>
+    <t>MEKULEYI, Oluwapelumi</t>
+  </si>
+  <si>
+    <t>AYOOLA, Victoria</t>
+  </si>
+  <si>
+    <t>New_Staff1_Floor2</t>
+  </si>
+  <si>
+    <t>New_Staff2_Floor2</t>
+  </si>
+  <si>
+    <t>New_Staff1_Floor3</t>
+  </si>
+  <si>
+    <t>New_Staff2_Floor3</t>
+  </si>
+  <si>
+    <t>New_Staff1_Floor4</t>
+  </si>
+  <si>
+    <t>New_Staff2_Floor4</t>
+  </si>
+  <si>
+    <t>New_Staff1_Floor5</t>
+  </si>
+  <si>
+    <t>New_Staff2_Floor5</t>
+  </si>
+  <si>
+    <t>ONUMONU, Ifeoma</t>
+  </si>
+  <si>
+    <t>New_Staff1_Diaspora</t>
+  </si>
+  <si>
+    <t>New_Staff2_Diaspora</t>
   </si>
 </sst>
 </file>
@@ -377,7 +416,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -687,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D781C070-8515-4681-9324-0DF5D5B292AA}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,1226 +754,1502 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
+      <c r="A41" t="s">
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>66</v>
+      <c r="A42" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H74" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J76" s="1"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I81" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F70" xr:uid="{D781C070-8515-4681-9324-0DF5D5B292AA}"/>
+  <autoFilter ref="A1:F85" xr:uid="{D781C070-8515-4681-9324-0DF5D5B292AA}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
